--- a/data/case1/15/cost_13.xlsx
+++ b/data/case1/15/cost_13.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>148.83117273699031</v>
+        <v>148.83308789090307</v>
       </c>
       <c r="B1" s="0">
-        <v>3.6754263944393517</v>
+        <v>3.9302202035716993</v>
       </c>
       <c r="C1" s="0">
-        <v>2.4951076320939336</v>
+        <v>2.0384866275277234</v>
       </c>
     </row>
   </sheetData>
